--- a/Software Design Major Project Documentation 2021/Gantt Chart.xlsx
+++ b/Software Design Major Project Documentation 2021/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d736911ba2f2e890/School/Software Design/Git Repos/Major-Project-2021_Subject-Selection/Software Design Major Project Documentation 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{514CD3E0-31C7-47BD-A6E8-806B9A1E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90A4E82-380D-45C6-A967-9097D8C7951E}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{514CD3E0-31C7-47BD-A6E8-806B9A1E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BFA9F6-99DB-4CD8-A66C-8A6067DEE63A}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="3780" windowWidth="23445" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,51 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -1131,8 +1092,8 @@
   </sheetPr>
   <dimension ref="B1:DL29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="CR33" sqref="CR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1141,12 +1102,13 @@
     <col min="2" max="2" width="39.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="8" max="8" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:116" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1156,21 +1118,21 @@
     </row>
     <row r="2" spans="2:116" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H2" s="21">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="30" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1178,21 +1140,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="16"/>
       <c r="V2" s="22" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="17"/>
       <c r="AA2" s="35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
@@ -1202,7 +1164,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="18"/>
       <c r="AI2" s="22" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
@@ -1217,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
@@ -1571,7 +1533,7 @@
     </row>
     <row r="5" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1591,7 +1553,7 @@
     </row>
     <row r="6" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -1611,7 +1573,7 @@
     </row>
     <row r="7" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -1631,7 +1593,7 @@
     </row>
     <row r="8" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>12</v>
@@ -1651,7 +1613,7 @@
     </row>
     <row r="9" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>12</v>
@@ -1671,7 +1633,7 @@
     </row>
     <row r="10" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
         <v>16</v>
@@ -1691,7 +1653,7 @@
     </row>
     <row r="11" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>25</v>
@@ -1711,7 +1673,7 @@
     </row>
     <row r="12" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>25</v>
@@ -1731,7 +1693,7 @@
     </row>
     <row r="13" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6">
         <v>30</v>
@@ -1751,7 +1713,7 @@
     </row>
     <row r="14" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C14" s="6">
         <v>38</v>
@@ -1766,12 +1728,12 @@
         <v>52</v>
       </c>
       <c r="G14" s="7">
-        <v>0.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>84</v>
@@ -1786,12 +1748,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>91</v>
@@ -1806,268 +1768,112 @@
         <v>6</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.01</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.44</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.12</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Software Design Major Project Documentation 2021/Gantt Chart.xlsx
+++ b/Software Design Major Project Documentation 2021/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d736911ba2f2e890/School/Software Design/Git Repos/Major-Project-2021_Subject-Selection/Software Design Major Project Documentation 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{514CD3E0-31C7-47BD-A6E8-806B9A1E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BFA9F6-99DB-4CD8-A66C-8A6067DEE63A}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{514CD3E0-31C7-47BD-A6E8-806B9A1E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E0BA20-F1BB-4450-81E1-3287B0E2206C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +504,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,6 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1092,8 +1104,8 @@
   </sheetPr>
   <dimension ref="B1:DL29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="CR33" sqref="CR33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="DL29" sqref="DL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1550,6 +1562,114 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="39"/>
+      <c r="CF5" s="39"/>
+      <c r="CG5" s="39"/>
+      <c r="CH5" s="39"/>
+      <c r="CI5" s="39"/>
+      <c r="CJ5" s="39"/>
+      <c r="CK5" s="39"/>
+      <c r="CL5" s="39"/>
+      <c r="CM5" s="39"/>
+      <c r="CN5" s="39"/>
+      <c r="CO5" s="39"/>
+      <c r="CP5" s="39"/>
+      <c r="CQ5" s="39"/>
+      <c r="CR5" s="39"/>
+      <c r="CS5" s="39"/>
+      <c r="CT5" s="39"/>
+      <c r="CU5" s="39"/>
+      <c r="CV5" s="39"/>
+      <c r="CW5" s="39"/>
+      <c r="CX5" s="39"/>
+      <c r="CY5" s="39"/>
+      <c r="CZ5" s="39"/>
+      <c r="DA5" s="39"/>
+      <c r="DB5" s="39"/>
+      <c r="DC5" s="39"/>
+      <c r="DD5" s="39"/>
+      <c r="DE5" s="39"/>
+      <c r="DF5" s="39"/>
+      <c r="DG5" s="39"/>
+      <c r="DH5" s="39"/>
+      <c r="DI5" s="39"/>
+      <c r="DJ5" s="39"/>
+      <c r="DK5" s="39"/>
     </row>
     <row r="6" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -1570,6 +1690,114 @@
       <c r="G6" s="7">
         <v>1</v>
       </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
+      <c r="BQ6" s="39"/>
+      <c r="BR6" s="39"/>
+      <c r="BS6" s="39"/>
+      <c r="BT6" s="39"/>
+      <c r="BU6" s="39"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BX6" s="39"/>
+      <c r="BY6" s="39"/>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="39"/>
+      <c r="CB6" s="39"/>
+      <c r="CC6" s="39"/>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
+      <c r="CF6" s="39"/>
+      <c r="CG6" s="39"/>
+      <c r="CH6" s="39"/>
+      <c r="CI6" s="39"/>
+      <c r="CJ6" s="39"/>
+      <c r="CK6" s="39"/>
+      <c r="CL6" s="39"/>
+      <c r="CM6" s="39"/>
+      <c r="CN6" s="39"/>
+      <c r="CO6" s="39"/>
+      <c r="CP6" s="39"/>
+      <c r="CQ6" s="39"/>
+      <c r="CR6" s="39"/>
+      <c r="CS6" s="39"/>
+      <c r="CT6" s="39"/>
+      <c r="CU6" s="39"/>
+      <c r="CV6" s="39"/>
+      <c r="CW6" s="39"/>
+      <c r="CX6" s="39"/>
+      <c r="CY6" s="39"/>
+      <c r="CZ6" s="39"/>
+      <c r="DA6" s="39"/>
+      <c r="DB6" s="39"/>
+      <c r="DC6" s="39"/>
+      <c r="DD6" s="39"/>
+      <c r="DE6" s="39"/>
+      <c r="DF6" s="39"/>
+      <c r="DG6" s="39"/>
+      <c r="DH6" s="39"/>
+      <c r="DI6" s="39"/>
+      <c r="DJ6" s="39"/>
+      <c r="DK6" s="39"/>
     </row>
     <row r="7" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -1590,6 +1818,114 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="39"/>
+      <c r="CG7" s="39"/>
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="39"/>
+      <c r="CN7" s="39"/>
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="39"/>
+      <c r="CU7" s="39"/>
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="39"/>
+      <c r="DB7" s="39"/>
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="39"/>
+      <c r="DI7" s="39"/>
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
     </row>
     <row r="8" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1610,6 +1946,114 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
+      <c r="BL8" s="39"/>
+      <c r="BM8" s="39"/>
+      <c r="BN8" s="39"/>
+      <c r="BO8" s="39"/>
+      <c r="BP8" s="39"/>
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="39"/>
+      <c r="BS8" s="39"/>
+      <c r="BT8" s="39"/>
+      <c r="BU8" s="39"/>
+      <c r="BV8" s="39"/>
+      <c r="BW8" s="39"/>
+      <c r="BX8" s="39"/>
+      <c r="BY8" s="39"/>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="39"/>
+      <c r="CB8" s="39"/>
+      <c r="CC8" s="39"/>
+      <c r="CD8" s="39"/>
+      <c r="CE8" s="39"/>
+      <c r="CF8" s="39"/>
+      <c r="CG8" s="39"/>
+      <c r="CH8" s="39"/>
+      <c r="CI8" s="39"/>
+      <c r="CJ8" s="39"/>
+      <c r="CK8" s="39"/>
+      <c r="CL8" s="39"/>
+      <c r="CM8" s="39"/>
+      <c r="CN8" s="39"/>
+      <c r="CO8" s="39"/>
+      <c r="CP8" s="39"/>
+      <c r="CQ8" s="39"/>
+      <c r="CR8" s="39"/>
+      <c r="CS8" s="39"/>
+      <c r="CT8" s="39"/>
+      <c r="CU8" s="39"/>
+      <c r="CV8" s="39"/>
+      <c r="CW8" s="39"/>
+      <c r="CX8" s="39"/>
+      <c r="CY8" s="39"/>
+      <c r="CZ8" s="39"/>
+      <c r="DA8" s="39"/>
+      <c r="DB8" s="39"/>
+      <c r="DC8" s="39"/>
+      <c r="DD8" s="39"/>
+      <c r="DE8" s="39"/>
+      <c r="DF8" s="39"/>
+      <c r="DG8" s="39"/>
+      <c r="DH8" s="39"/>
+      <c r="DI8" s="39"/>
+      <c r="DJ8" s="39"/>
+      <c r="DK8" s="39"/>
     </row>
     <row r="9" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1630,6 +2074,114 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39"/>
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39"/>
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39"/>
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39"/>
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
+      <c r="CH9" s="39"/>
+      <c r="CI9" s="39"/>
+      <c r="CJ9" s="39"/>
+      <c r="CK9" s="39"/>
+      <c r="CL9" s="39"/>
+      <c r="CM9" s="39"/>
+      <c r="CN9" s="39"/>
+      <c r="CO9" s="39"/>
+      <c r="CP9" s="39"/>
+      <c r="CQ9" s="39"/>
+      <c r="CR9" s="39"/>
+      <c r="CS9" s="39"/>
+      <c r="CT9" s="39"/>
+      <c r="CU9" s="39"/>
+      <c r="CV9" s="39"/>
+      <c r="CW9" s="39"/>
+      <c r="CX9" s="39"/>
+      <c r="CY9" s="39"/>
+      <c r="CZ9" s="39"/>
+      <c r="DA9" s="39"/>
+      <c r="DB9" s="39"/>
+      <c r="DC9" s="39"/>
+      <c r="DD9" s="39"/>
+      <c r="DE9" s="39"/>
+      <c r="DF9" s="39"/>
+      <c r="DG9" s="39"/>
+      <c r="DH9" s="39"/>
+      <c r="DI9" s="39"/>
+      <c r="DJ9" s="39"/>
+      <c r="DK9" s="39"/>
     </row>
     <row r="10" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1650,6 +2202,114 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="39"/>
+      <c r="BM10" s="39"/>
+      <c r="BN10" s="39"/>
+      <c r="BO10" s="39"/>
+      <c r="BP10" s="39"/>
+      <c r="BQ10" s="39"/>
+      <c r="BR10" s="39"/>
+      <c r="BS10" s="39"/>
+      <c r="BT10" s="39"/>
+      <c r="BU10" s="39"/>
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="39"/>
+      <c r="BX10" s="39"/>
+      <c r="BY10" s="39"/>
+      <c r="BZ10" s="39"/>
+      <c r="CA10" s="39"/>
+      <c r="CB10" s="39"/>
+      <c r="CC10" s="39"/>
+      <c r="CD10" s="39"/>
+      <c r="CE10" s="39"/>
+      <c r="CF10" s="39"/>
+      <c r="CG10" s="39"/>
+      <c r="CH10" s="39"/>
+      <c r="CI10" s="39"/>
+      <c r="CJ10" s="39"/>
+      <c r="CK10" s="39"/>
+      <c r="CL10" s="39"/>
+      <c r="CM10" s="39"/>
+      <c r="CN10" s="39"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="39"/>
+      <c r="CQ10" s="39"/>
+      <c r="CR10" s="39"/>
+      <c r="CS10" s="39"/>
+      <c r="CT10" s="39"/>
+      <c r="CU10" s="39"/>
+      <c r="CV10" s="39"/>
+      <c r="CW10" s="39"/>
+      <c r="CX10" s="39"/>
+      <c r="CY10" s="39"/>
+      <c r="CZ10" s="39"/>
+      <c r="DA10" s="39"/>
+      <c r="DB10" s="39"/>
+      <c r="DC10" s="39"/>
+      <c r="DD10" s="39"/>
+      <c r="DE10" s="39"/>
+      <c r="DF10" s="39"/>
+      <c r="DG10" s="39"/>
+      <c r="DH10" s="39"/>
+      <c r="DI10" s="39"/>
+      <c r="DJ10" s="39"/>
+      <c r="DK10" s="39"/>
     </row>
     <row r="11" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -1670,6 +2330,114 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="39"/>
+      <c r="CF11" s="39"/>
+      <c r="CG11" s="39"/>
+      <c r="CH11" s="39"/>
+      <c r="CI11" s="39"/>
+      <c r="CJ11" s="39"/>
+      <c r="CK11" s="39"/>
+      <c r="CL11" s="39"/>
+      <c r="CM11" s="39"/>
+      <c r="CN11" s="39"/>
+      <c r="CO11" s="39"/>
+      <c r="CP11" s="39"/>
+      <c r="CQ11" s="39"/>
+      <c r="CR11" s="39"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="39"/>
+      <c r="CU11" s="39"/>
+      <c r="CV11" s="39"/>
+      <c r="CW11" s="39"/>
+      <c r="CX11" s="39"/>
+      <c r="CY11" s="39"/>
+      <c r="CZ11" s="39"/>
+      <c r="DA11" s="39"/>
+      <c r="DB11" s="39"/>
+      <c r="DC11" s="39"/>
+      <c r="DD11" s="39"/>
+      <c r="DE11" s="39"/>
+      <c r="DF11" s="39"/>
+      <c r="DG11" s="39"/>
+      <c r="DH11" s="39"/>
+      <c r="DI11" s="39"/>
+      <c r="DJ11" s="39"/>
+      <c r="DK11" s="39"/>
     </row>
     <row r="12" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1690,6 +2458,114 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
+      <c r="BL12" s="39"/>
+      <c r="BM12" s="39"/>
+      <c r="BN12" s="39"/>
+      <c r="BO12" s="39"/>
+      <c r="BP12" s="39"/>
+      <c r="BQ12" s="39"/>
+      <c r="BR12" s="39"/>
+      <c r="BS12" s="39"/>
+      <c r="BT12" s="39"/>
+      <c r="BU12" s="39"/>
+      <c r="BV12" s="39"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="BY12" s="39"/>
+      <c r="BZ12" s="39"/>
+      <c r="CA12" s="39"/>
+      <c r="CB12" s="39"/>
+      <c r="CC12" s="39"/>
+      <c r="CD12" s="39"/>
+      <c r="CE12" s="39"/>
+      <c r="CF12" s="39"/>
+      <c r="CG12" s="39"/>
+      <c r="CH12" s="39"/>
+      <c r="CI12" s="39"/>
+      <c r="CJ12" s="39"/>
+      <c r="CK12" s="39"/>
+      <c r="CL12" s="39"/>
+      <c r="CM12" s="39"/>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="39"/>
+      <c r="CR12" s="39"/>
+      <c r="CS12" s="39"/>
+      <c r="CT12" s="39"/>
+      <c r="CU12" s="39"/>
+      <c r="CV12" s="39"/>
+      <c r="CW12" s="39"/>
+      <c r="CX12" s="39"/>
+      <c r="CY12" s="39"/>
+      <c r="CZ12" s="39"/>
+      <c r="DA12" s="39"/>
+      <c r="DB12" s="39"/>
+      <c r="DC12" s="39"/>
+      <c r="DD12" s="39"/>
+      <c r="DE12" s="39"/>
+      <c r="DF12" s="39"/>
+      <c r="DG12" s="39"/>
+      <c r="DH12" s="39"/>
+      <c r="DI12" s="39"/>
+      <c r="DJ12" s="39"/>
+      <c r="DK12" s="39"/>
     </row>
     <row r="13" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
@@ -1710,6 +2586,114 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+      <c r="BL13" s="39"/>
+      <c r="BM13" s="39"/>
+      <c r="BN13" s="39"/>
+      <c r="BO13" s="39"/>
+      <c r="BP13" s="39"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="39"/>
+      <c r="BS13" s="39"/>
+      <c r="BT13" s="39"/>
+      <c r="BU13" s="39"/>
+      <c r="BV13" s="39"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="BY13" s="39"/>
+      <c r="BZ13" s="39"/>
+      <c r="CA13" s="39"/>
+      <c r="CB13" s="39"/>
+      <c r="CC13" s="39"/>
+      <c r="CD13" s="39"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CJ13" s="39"/>
+      <c r="CK13" s="39"/>
+      <c r="CL13" s="39"/>
+      <c r="CM13" s="39"/>
+      <c r="CN13" s="39"/>
+      <c r="CO13" s="39"/>
+      <c r="CP13" s="39"/>
+      <c r="CQ13" s="39"/>
+      <c r="CR13" s="39"/>
+      <c r="CS13" s="39"/>
+      <c r="CT13" s="39"/>
+      <c r="CU13" s="39"/>
+      <c r="CV13" s="39"/>
+      <c r="CW13" s="39"/>
+      <c r="CX13" s="39"/>
+      <c r="CY13" s="39"/>
+      <c r="CZ13" s="39"/>
+      <c r="DA13" s="39"/>
+      <c r="DB13" s="39"/>
+      <c r="DC13" s="39"/>
+      <c r="DD13" s="39"/>
+      <c r="DE13" s="39"/>
+      <c r="DF13" s="39"/>
+      <c r="DG13" s="39"/>
+      <c r="DH13" s="39"/>
+      <c r="DI13" s="39"/>
+      <c r="DJ13" s="39"/>
+      <c r="DK13" s="39"/>
     </row>
     <row r="14" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
@@ -1730,6 +2714,114 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
+      <c r="BL14" s="39"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="39"/>
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="39"/>
+      <c r="BU14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="39"/>
+      <c r="BZ14" s="39"/>
+      <c r="CA14" s="39"/>
+      <c r="CB14" s="39"/>
+      <c r="CC14" s="39"/>
+      <c r="CD14" s="39"/>
+      <c r="CE14" s="39"/>
+      <c r="CF14" s="39"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="39"/>
+      <c r="CI14" s="39"/>
+      <c r="CJ14" s="39"/>
+      <c r="CK14" s="39"/>
+      <c r="CL14" s="39"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="39"/>
+      <c r="CP14" s="39"/>
+      <c r="CQ14" s="39"/>
+      <c r="CR14" s="39"/>
+      <c r="CS14" s="39"/>
+      <c r="CT14" s="39"/>
+      <c r="CU14" s="39"/>
+      <c r="CV14" s="39"/>
+      <c r="CW14" s="39"/>
+      <c r="CX14" s="39"/>
+      <c r="CY14" s="39"/>
+      <c r="CZ14" s="39"/>
+      <c r="DA14" s="39"/>
+      <c r="DB14" s="39"/>
+      <c r="DC14" s="39"/>
+      <c r="DD14" s="39"/>
+      <c r="DE14" s="39"/>
+      <c r="DF14" s="39"/>
+      <c r="DG14" s="39"/>
+      <c r="DH14" s="39"/>
+      <c r="DI14" s="39"/>
+      <c r="DJ14" s="39"/>
+      <c r="DK14" s="39"/>
     </row>
     <row r="15" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
@@ -1750,6 +2842,114 @@
       <c r="G15" s="7">
         <v>1</v>
       </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="39"/>
+      <c r="BL15" s="39"/>
+      <c r="BM15" s="39"/>
+      <c r="BN15" s="39"/>
+      <c r="BO15" s="39"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="39"/>
+      <c r="BU15" s="39"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="39"/>
+      <c r="BZ15" s="39"/>
+      <c r="CA15" s="39"/>
+      <c r="CB15" s="39"/>
+      <c r="CC15" s="39"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="39"/>
+      <c r="CF15" s="39"/>
+      <c r="CG15" s="39"/>
+      <c r="CH15" s="39"/>
+      <c r="CI15" s="39"/>
+      <c r="CJ15" s="39"/>
+      <c r="CK15" s="39"/>
+      <c r="CL15" s="39"/>
+      <c r="CM15" s="39"/>
+      <c r="CN15" s="39"/>
+      <c r="CO15" s="39"/>
+      <c r="CP15" s="39"/>
+      <c r="CQ15" s="39"/>
+      <c r="CR15" s="39"/>
+      <c r="CS15" s="39"/>
+      <c r="CT15" s="39"/>
+      <c r="CU15" s="39"/>
+      <c r="CV15" s="39"/>
+      <c r="CW15" s="39"/>
+      <c r="CX15" s="39"/>
+      <c r="CY15" s="39"/>
+      <c r="CZ15" s="39"/>
+      <c r="DA15" s="39"/>
+      <c r="DB15" s="39"/>
+      <c r="DC15" s="39"/>
+      <c r="DD15" s="39"/>
+      <c r="DE15" s="39"/>
+      <c r="DF15" s="39"/>
+      <c r="DG15" s="39"/>
+      <c r="DH15" s="39"/>
+      <c r="DI15" s="39"/>
+      <c r="DJ15" s="39"/>
+      <c r="DK15" s="39"/>
     </row>
     <row r="16" spans="2:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1770,110 +2970,1622 @@
       <c r="G16" s="7">
         <v>1</v>
       </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="39"/>
+      <c r="BL16" s="39"/>
+      <c r="BM16" s="39"/>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="39"/>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="39"/>
+      <c r="CL16" s="39"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="39"/>
+      <c r="CR16" s="39"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
+      <c r="CV16" s="39"/>
+      <c r="CW16" s="39"/>
+      <c r="CX16" s="39"/>
+      <c r="CY16" s="39"/>
+      <c r="CZ16" s="39"/>
+      <c r="DA16" s="39"/>
+      <c r="DB16" s="39"/>
+      <c r="DC16" s="39"/>
+      <c r="DD16" s="39"/>
+      <c r="DE16" s="39"/>
+      <c r="DF16" s="39"/>
+      <c r="DG16" s="39"/>
+      <c r="DH16" s="39"/>
+      <c r="DI16" s="39"/>
+      <c r="DJ16" s="39"/>
+      <c r="DK16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="39"/>
+      <c r="BL17" s="39"/>
+      <c r="BM17" s="39"/>
+      <c r="BN17" s="39"/>
+      <c r="BO17" s="39"/>
+      <c r="BP17" s="39"/>
+      <c r="BQ17" s="39"/>
+      <c r="BR17" s="39"/>
+      <c r="BS17" s="39"/>
+      <c r="BT17" s="39"/>
+      <c r="BU17" s="39"/>
+      <c r="BV17" s="39"/>
+      <c r="BW17" s="39"/>
+      <c r="BX17" s="39"/>
+      <c r="BY17" s="39"/>
+      <c r="BZ17" s="39"/>
+      <c r="CA17" s="39"/>
+      <c r="CB17" s="39"/>
+      <c r="CC17" s="39"/>
+      <c r="CD17" s="39"/>
+      <c r="CE17" s="39"/>
+      <c r="CF17" s="39"/>
+      <c r="CG17" s="39"/>
+      <c r="CH17" s="39"/>
+      <c r="CI17" s="39"/>
+      <c r="CJ17" s="39"/>
+      <c r="CK17" s="39"/>
+      <c r="CL17" s="39"/>
+      <c r="CM17" s="39"/>
+      <c r="CN17" s="39"/>
+      <c r="CO17" s="39"/>
+      <c r="CP17" s="39"/>
+      <c r="CQ17" s="39"/>
+      <c r="CR17" s="39"/>
+      <c r="CS17" s="39"/>
+      <c r="CT17" s="39"/>
+      <c r="CU17" s="39"/>
+      <c r="CV17" s="39"/>
+      <c r="CW17" s="39"/>
+      <c r="CX17" s="39"/>
+      <c r="CY17" s="39"/>
+      <c r="CZ17" s="39"/>
+      <c r="DA17" s="39"/>
+      <c r="DB17" s="39"/>
+      <c r="DC17" s="39"/>
+      <c r="DD17" s="39"/>
+      <c r="DE17" s="39"/>
+      <c r="DF17" s="39"/>
+      <c r="DG17" s="39"/>
+      <c r="DH17" s="39"/>
+      <c r="DI17" s="39"/>
+      <c r="DJ17" s="39"/>
+      <c r="DK17" s="39"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+      <c r="BM18" s="39"/>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="39"/>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="39"/>
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="39"/>
+      <c r="CJ18" s="39"/>
+      <c r="CK18" s="39"/>
+      <c r="CL18" s="39"/>
+      <c r="CM18" s="39"/>
+      <c r="CN18" s="39"/>
+      <c r="CO18" s="39"/>
+      <c r="CP18" s="39"/>
+      <c r="CQ18" s="39"/>
+      <c r="CR18" s="39"/>
+      <c r="CS18" s="39"/>
+      <c r="CT18" s="39"/>
+      <c r="CU18" s="39"/>
+      <c r="CV18" s="39"/>
+      <c r="CW18" s="39"/>
+      <c r="CX18" s="39"/>
+      <c r="CY18" s="39"/>
+      <c r="CZ18" s="39"/>
+      <c r="DA18" s="39"/>
+      <c r="DB18" s="39"/>
+      <c r="DC18" s="39"/>
+      <c r="DD18" s="39"/>
+      <c r="DE18" s="39"/>
+      <c r="DF18" s="39"/>
+      <c r="DG18" s="39"/>
+      <c r="DH18" s="39"/>
+      <c r="DI18" s="39"/>
+      <c r="DJ18" s="39"/>
+      <c r="DK18" s="39"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
+      <c r="BL19" s="39"/>
+      <c r="BM19" s="39"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="39"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BR19" s="39"/>
+      <c r="BS19" s="39"/>
+      <c r="BT19" s="39"/>
+      <c r="BU19" s="39"/>
+      <c r="BV19" s="39"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="BY19" s="39"/>
+      <c r="BZ19" s="39"/>
+      <c r="CA19" s="39"/>
+      <c r="CB19" s="39"/>
+      <c r="CC19" s="39"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="39"/>
+      <c r="CF19" s="39"/>
+      <c r="CG19" s="39"/>
+      <c r="CH19" s="39"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="39"/>
+      <c r="CK19" s="39"/>
+      <c r="CL19" s="39"/>
+      <c r="CM19" s="39"/>
+      <c r="CN19" s="39"/>
+      <c r="CO19" s="39"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="39"/>
+      <c r="CR19" s="39"/>
+      <c r="CS19" s="39"/>
+      <c r="CT19" s="39"/>
+      <c r="CU19" s="39"/>
+      <c r="CV19" s="39"/>
+      <c r="CW19" s="39"/>
+      <c r="CX19" s="39"/>
+      <c r="CY19" s="39"/>
+      <c r="CZ19" s="39"/>
+      <c r="DA19" s="39"/>
+      <c r="DB19" s="39"/>
+      <c r="DC19" s="39"/>
+      <c r="DD19" s="39"/>
+      <c r="DE19" s="39"/>
+      <c r="DF19" s="39"/>
+      <c r="DG19" s="39"/>
+      <c r="DH19" s="39"/>
+      <c r="DI19" s="39"/>
+      <c r="DJ19" s="39"/>
+      <c r="DK19" s="39"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="39"/>
+      <c r="BS20" s="39"/>
+      <c r="BT20" s="39"/>
+      <c r="BU20" s="39"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="39"/>
+      <c r="BZ20" s="39"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="39"/>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="39"/>
+      <c r="CX20" s="39"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="39"/>
+      <c r="DD20" s="39"/>
+      <c r="DE20" s="39"/>
+      <c r="DF20" s="39"/>
+      <c r="DG20" s="39"/>
+      <c r="DH20" s="39"/>
+      <c r="DI20" s="39"/>
+      <c r="DJ20" s="39"/>
+      <c r="DK20" s="39"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
+      <c r="BL21" s="39"/>
+      <c r="BM21" s="39"/>
+      <c r="BN21" s="39"/>
+      <c r="BO21" s="39"/>
+      <c r="BP21" s="39"/>
+      <c r="BQ21" s="39"/>
+      <c r="BR21" s="39"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="39"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="39"/>
+      <c r="CJ21" s="39"/>
+      <c r="CK21" s="39"/>
+      <c r="CL21" s="39"/>
+      <c r="CM21" s="39"/>
+      <c r="CN21" s="39"/>
+      <c r="CO21" s="39"/>
+      <c r="CP21" s="39"/>
+      <c r="CQ21" s="39"/>
+      <c r="CR21" s="39"/>
+      <c r="CS21" s="39"/>
+      <c r="CT21" s="39"/>
+      <c r="CU21" s="39"/>
+      <c r="CV21" s="39"/>
+      <c r="CW21" s="39"/>
+      <c r="CX21" s="39"/>
+      <c r="CY21" s="39"/>
+      <c r="CZ21" s="39"/>
+      <c r="DA21" s="39"/>
+      <c r="DB21" s="39"/>
+      <c r="DC21" s="39"/>
+      <c r="DD21" s="39"/>
+      <c r="DE21" s="39"/>
+      <c r="DF21" s="39"/>
+      <c r="DG21" s="39"/>
+      <c r="DH21" s="39"/>
+      <c r="DI21" s="39"/>
+      <c r="DJ21" s="39"/>
+      <c r="DK21" s="39"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+      <c r="BM22" s="39"/>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="39"/>
+      <c r="BS22" s="39"/>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="39"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="39"/>
+      <c r="DD22" s="39"/>
+      <c r="DE22" s="39"/>
+      <c r="DF22" s="39"/>
+      <c r="DG22" s="39"/>
+      <c r="DH22" s="39"/>
+      <c r="DI22" s="39"/>
+      <c r="DJ22" s="39"/>
+      <c r="DK22" s="39"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="39"/>
+      <c r="BL23" s="39"/>
+      <c r="BM23" s="39"/>
+      <c r="BN23" s="39"/>
+      <c r="BO23" s="39"/>
+      <c r="BP23" s="39"/>
+      <c r="BQ23" s="39"/>
+      <c r="BR23" s="39"/>
+      <c r="BS23" s="39"/>
+      <c r="BT23" s="39"/>
+      <c r="BU23" s="39"/>
+      <c r="BV23" s="39"/>
+      <c r="BW23" s="39"/>
+      <c r="BX23" s="39"/>
+      <c r="BY23" s="39"/>
+      <c r="BZ23" s="39"/>
+      <c r="CA23" s="39"/>
+      <c r="CB23" s="39"/>
+      <c r="CC23" s="39"/>
+      <c r="CD23" s="39"/>
+      <c r="CE23" s="39"/>
+      <c r="CF23" s="39"/>
+      <c r="CG23" s="39"/>
+      <c r="CH23" s="39"/>
+      <c r="CI23" s="39"/>
+      <c r="CJ23" s="39"/>
+      <c r="CK23" s="39"/>
+      <c r="CL23" s="39"/>
+      <c r="CM23" s="39"/>
+      <c r="CN23" s="39"/>
+      <c r="CO23" s="39"/>
+      <c r="CP23" s="39"/>
+      <c r="CQ23" s="39"/>
+      <c r="CR23" s="39"/>
+      <c r="CS23" s="39"/>
+      <c r="CT23" s="39"/>
+      <c r="CU23" s="39"/>
+      <c r="CV23" s="39"/>
+      <c r="CW23" s="39"/>
+      <c r="CX23" s="39"/>
+      <c r="CY23" s="39"/>
+      <c r="CZ23" s="39"/>
+      <c r="DA23" s="39"/>
+      <c r="DB23" s="39"/>
+      <c r="DC23" s="39"/>
+      <c r="DD23" s="39"/>
+      <c r="DE23" s="39"/>
+      <c r="DF23" s="39"/>
+      <c r="DG23" s="39"/>
+      <c r="DH23" s="39"/>
+      <c r="DI23" s="39"/>
+      <c r="DJ23" s="39"/>
+      <c r="DK23" s="39"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="39"/>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="39"/>
+      <c r="CX24" s="39"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="39"/>
+      <c r="DD24" s="39"/>
+      <c r="DE24" s="39"/>
+      <c r="DF24" s="39"/>
+      <c r="DG24" s="39"/>
+      <c r="DH24" s="39"/>
+      <c r="DI24" s="39"/>
+      <c r="DJ24" s="39"/>
+      <c r="DK24" s="39"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+      <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="BR25" s="39"/>
+      <c r="BS25" s="39"/>
+      <c r="BT25" s="39"/>
+      <c r="BU25" s="39"/>
+      <c r="BV25" s="39"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="BY25" s="39"/>
+      <c r="BZ25" s="39"/>
+      <c r="CA25" s="39"/>
+      <c r="CB25" s="39"/>
+      <c r="CC25" s="39"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
+      <c r="CF25" s="39"/>
+      <c r="CG25" s="39"/>
+      <c r="CH25" s="39"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
+      <c r="CK25" s="39"/>
+      <c r="CL25" s="39"/>
+      <c r="CM25" s="39"/>
+      <c r="CN25" s="39"/>
+      <c r="CO25" s="39"/>
+      <c r="CP25" s="39"/>
+      <c r="CQ25" s="39"/>
+      <c r="CR25" s="39"/>
+      <c r="CS25" s="39"/>
+      <c r="CT25" s="39"/>
+      <c r="CU25" s="39"/>
+      <c r="CV25" s="39"/>
+      <c r="CW25" s="39"/>
+      <c r="CX25" s="39"/>
+      <c r="CY25" s="39"/>
+      <c r="CZ25" s="39"/>
+      <c r="DA25" s="39"/>
+      <c r="DB25" s="39"/>
+      <c r="DC25" s="39"/>
+      <c r="DD25" s="39"/>
+      <c r="DE25" s="39"/>
+      <c r="DF25" s="39"/>
+      <c r="DG25" s="39"/>
+      <c r="DH25" s="39"/>
+      <c r="DI25" s="39"/>
+      <c r="DJ25" s="39"/>
+      <c r="DK25" s="39"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+      <c r="BL26" s="39"/>
+      <c r="BM26" s="39"/>
+      <c r="BN26" s="39"/>
+      <c r="BO26" s="39"/>
+      <c r="BP26" s="39"/>
+      <c r="BQ26" s="39"/>
+      <c r="BR26" s="39"/>
+      <c r="BS26" s="39"/>
+      <c r="BT26" s="39"/>
+      <c r="BU26" s="39"/>
+      <c r="BV26" s="39"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="BY26" s="39"/>
+      <c r="BZ26" s="39"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="39"/>
+      <c r="CC26" s="39"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="39"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="39"/>
+      <c r="CL26" s="39"/>
+      <c r="CM26" s="39"/>
+      <c r="CN26" s="39"/>
+      <c r="CO26" s="39"/>
+      <c r="CP26" s="39"/>
+      <c r="CQ26" s="39"/>
+      <c r="CR26" s="39"/>
+      <c r="CS26" s="39"/>
+      <c r="CT26" s="39"/>
+      <c r="CU26" s="39"/>
+      <c r="CV26" s="39"/>
+      <c r="CW26" s="39"/>
+      <c r="CX26" s="39"/>
+      <c r="CY26" s="39"/>
+      <c r="CZ26" s="39"/>
+      <c r="DA26" s="39"/>
+      <c r="DB26" s="39"/>
+      <c r="DC26" s="39"/>
+      <c r="DD26" s="39"/>
+      <c r="DE26" s="39"/>
+      <c r="DF26" s="39"/>
+      <c r="DG26" s="39"/>
+      <c r="DH26" s="39"/>
+      <c r="DI26" s="39"/>
+      <c r="DJ26" s="39"/>
+      <c r="DK26" s="39"/>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
+      <c r="BL27" s="39"/>
+      <c r="BM27" s="39"/>
+      <c r="BN27" s="39"/>
+      <c r="BO27" s="39"/>
+      <c r="BP27" s="39"/>
+      <c r="BQ27" s="39"/>
+      <c r="BR27" s="39"/>
+      <c r="BS27" s="39"/>
+      <c r="BT27" s="39"/>
+      <c r="BU27" s="39"/>
+      <c r="BV27" s="39"/>
+      <c r="BW27" s="39"/>
+      <c r="BX27" s="39"/>
+      <c r="BY27" s="39"/>
+      <c r="BZ27" s="39"/>
+      <c r="CA27" s="39"/>
+      <c r="CB27" s="39"/>
+      <c r="CC27" s="39"/>
+      <c r="CD27" s="39"/>
+      <c r="CE27" s="39"/>
+      <c r="CF27" s="39"/>
+      <c r="CG27" s="39"/>
+      <c r="CH27" s="39"/>
+      <c r="CI27" s="39"/>
+      <c r="CJ27" s="39"/>
+      <c r="CK27" s="39"/>
+      <c r="CL27" s="39"/>
+      <c r="CM27" s="39"/>
+      <c r="CN27" s="39"/>
+      <c r="CO27" s="39"/>
+      <c r="CP27" s="39"/>
+      <c r="CQ27" s="39"/>
+      <c r="CR27" s="39"/>
+      <c r="CS27" s="39"/>
+      <c r="CT27" s="39"/>
+      <c r="CU27" s="39"/>
+      <c r="CV27" s="39"/>
+      <c r="CW27" s="39"/>
+      <c r="CX27" s="39"/>
+      <c r="CY27" s="39"/>
+      <c r="CZ27" s="39"/>
+      <c r="DA27" s="39"/>
+      <c r="DB27" s="39"/>
+      <c r="DC27" s="39"/>
+      <c r="DD27" s="39"/>
+      <c r="DE27" s="39"/>
+      <c r="DF27" s="39"/>
+      <c r="DG27" s="39"/>
+      <c r="DH27" s="39"/>
+      <c r="DI27" s="39"/>
+      <c r="DJ27" s="39"/>
+      <c r="DK27" s="39"/>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="39"/>
+      <c r="AZ28" s="39"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="39"/>
+      <c r="BL28" s="39"/>
+      <c r="BM28" s="39"/>
+      <c r="BN28" s="39"/>
+      <c r="BO28" s="39"/>
+      <c r="BP28" s="39"/>
+      <c r="BQ28" s="39"/>
+      <c r="BR28" s="39"/>
+      <c r="BS28" s="39"/>
+      <c r="BT28" s="39"/>
+      <c r="BU28" s="39"/>
+      <c r="BV28" s="39"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="39"/>
+      <c r="BZ28" s="39"/>
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
+      <c r="CK28" s="39"/>
+      <c r="CL28" s="39"/>
+      <c r="CM28" s="39"/>
+      <c r="CN28" s="39"/>
+      <c r="CO28" s="39"/>
+      <c r="CP28" s="39"/>
+      <c r="CQ28" s="39"/>
+      <c r="CR28" s="39"/>
+      <c r="CS28" s="39"/>
+      <c r="CT28" s="39"/>
+      <c r="CU28" s="39"/>
+      <c r="CV28" s="39"/>
+      <c r="CW28" s="39"/>
+      <c r="CX28" s="39"/>
+      <c r="CY28" s="39"/>
+      <c r="CZ28" s="39"/>
+      <c r="DA28" s="39"/>
+      <c r="DB28" s="39"/>
+      <c r="DC28" s="39"/>
+      <c r="DD28" s="39"/>
+      <c r="DE28" s="39"/>
+      <c r="DF28" s="39"/>
+      <c r="DG28" s="39"/>
+      <c r="DH28" s="39"/>
+      <c r="DI28" s="39"/>
+      <c r="DJ28" s="39"/>
+      <c r="DK28" s="39"/>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:115" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="39"/>
+      <c r="AX29" s="39"/>
+      <c r="AY29" s="39"/>
+      <c r="AZ29" s="39"/>
+      <c r="BA29" s="39"/>
+      <c r="BB29" s="39"/>
+      <c r="BC29" s="39"/>
+      <c r="BD29" s="39"/>
+      <c r="BE29" s="39"/>
+      <c r="BF29" s="39"/>
+      <c r="BG29" s="39"/>
+      <c r="BH29" s="39"/>
+      <c r="BI29" s="39"/>
+      <c r="BJ29" s="39"/>
+      <c r="BK29" s="39"/>
+      <c r="BL29" s="39"/>
+      <c r="BM29" s="39"/>
+      <c r="BN29" s="39"/>
+      <c r="BO29" s="39"/>
+      <c r="BP29" s="39"/>
+      <c r="BQ29" s="39"/>
+      <c r="BR29" s="39"/>
+      <c r="BS29" s="39"/>
+      <c r="BT29" s="39"/>
+      <c r="BU29" s="39"/>
+      <c r="BV29" s="39"/>
+      <c r="BW29" s="39"/>
+      <c r="BX29" s="39"/>
+      <c r="BY29" s="39"/>
+      <c r="BZ29" s="39"/>
+      <c r="CA29" s="39"/>
+      <c r="CB29" s="39"/>
+      <c r="CC29" s="39"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="39"/>
+      <c r="CF29" s="39"/>
+      <c r="CG29" s="39"/>
+      <c r="CH29" s="39"/>
+      <c r="CI29" s="39"/>
+      <c r="CJ29" s="39"/>
+      <c r="CK29" s="39"/>
+      <c r="CL29" s="39"/>
+      <c r="CM29" s="39"/>
+      <c r="CN29" s="39"/>
+      <c r="CO29" s="39"/>
+      <c r="CP29" s="39"/>
+      <c r="CQ29" s="39"/>
+      <c r="CR29" s="39"/>
+      <c r="CS29" s="39"/>
+      <c r="CT29" s="39"/>
+      <c r="CU29" s="39"/>
+      <c r="CV29" s="39"/>
+      <c r="CW29" s="39"/>
+      <c r="CX29" s="39"/>
+      <c r="CY29" s="39"/>
+      <c r="CZ29" s="39"/>
+      <c r="DA29" s="39"/>
+      <c r="DB29" s="39"/>
+      <c r="DC29" s="39"/>
+      <c r="DD29" s="39"/>
+      <c r="DE29" s="39"/>
+      <c r="DF29" s="39"/>
+      <c r="DG29" s="39"/>
+      <c r="DH29" s="39"/>
+      <c r="DI29" s="39"/>
+      <c r="DJ29" s="39"/>
+      <c r="DK29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1948,7 +4660,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
